--- a/data/trans_bre/P16B97-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B97-Edad-trans_bre.xlsx
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,76</t>
+          <t>0,0; 58,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 49,81</t>
+          <t>-23,88; 49,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 136,52</t>
+          <t>0,0; 140,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 99,24</t>
+          <t>-23,94; 97,31</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 0,0</t>
+          <t>-19,43; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,94; -2,57</t>
+          <t>-27,73; -2,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 0,0</t>
+          <t>-19,43; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,94; -2,57</t>
+          <t>-27,73; -2,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 0,0</t>
+          <t>-9,32; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,63</t>
+          <t>0,0; 13,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 0,0</t>
+          <t>-9,32; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,46</t>
+          <t>0,0; 16,0</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,14</t>
+          <t>0,0; 6,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 0,0</t>
+          <t>-6,77; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,54</t>
+          <t>0,0; 7,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 0,0</t>
+          <t>-6,77; 0,0</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -0,85</t>
+          <t>-8,54; -0,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,97; -0,85</t>
+          <t>-8,54; -0,89</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,0</t>
+          <t>-4,91; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,32</t>
+          <t>-2,22; 0,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 0,91</t>
+          <t>-3,17; 0,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 0,0</t>
+          <t>-4,91; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,32</t>
+          <t>-2,23; 0,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,93</t>
+          <t>-3,21; 0,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B97-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B97-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,35</t>
+          <t>0,0; 57,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 49,51</t>
+          <t>-23,57; 49,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 140,06</t>
+          <t>0,0; 137,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 97,31</t>
+          <t>-23,59; 99,17</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 0,0</t>
+          <t>-20,31; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,73; -2,57</t>
+          <t>-26,54; -2,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,43; 0,0</t>
+          <t>-20,31; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,73; -2,57</t>
+          <t>-26,54; -2,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,0</t>
+          <t>-10,71; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,78</t>
+          <t>0,0; 16,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,0</t>
+          <t>-10,71; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,0</t>
+          <t>0,0; 19,46</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,68</t>
+          <t>0,0; 6,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 0,0</t>
+          <t>-9,87; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,16</t>
+          <t>0,0; 7,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 0,0</t>
+          <t>-9,87; 0,0</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 0,0</t>
+          <t>-14,4; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1052,12 +1052,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -0,89</t>
+          <t>-8,98; -0,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 0,0</t>
+          <t>-14,4; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -0,89</t>
+          <t>-8,98; -0,91</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,0</t>
+          <t>-5,27; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,46</t>
+          <t>-2,34; 0,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 0,97</t>
+          <t>-3,35; 0,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,0</t>
+          <t>-5,27; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 0,46</t>
+          <t>-2,33; 0,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 0,98</t>
+          <t>-3,37; 0,88</t>
         </is>
       </c>
     </row>
